--- a/arduino/Sensors/IR/New/ir3.xlsx
+++ b/arduino/Sensors/IR/New/ir3.xlsx
@@ -14,13 +14,17 @@
   <sheets>
     <sheet name="ir3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +155,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,9 +507,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -821,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,6 +1086,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>4.3229381376314304</v>
+      </c>
+      <c r="D12">
+        <v>421</v>
+      </c>
+      <c r="E12">
+        <f>$B$12+$B$15/POWER(1+POWER(D12/$B$14,$B$13),$B$16)</f>
+        <v>10.254630532915963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>2.6514382387330699</v>
+      </c>
+      <c r="D13">
+        <v>242.08</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E18" si="4">$B$12+$B$15/POWER(1+POWER(D13/$B$14,$B$13),$B$16)</f>
+        <v>18.164182133750039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>24.817442818972399</v>
+      </c>
+      <c r="D14">
+        <v>159.44</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>30.506368137433185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>455.39455433668797</v>
+      </c>
+      <c r="D15">
+        <v>123.32</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>42.988446657031147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>0.57824098026410098</v>
+      </c>
+      <c r="D16">
+        <v>104.84</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>53.700661564460901</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>96.16</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>60.517152964671013</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>90.92</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>65.406550677154911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
